--- a/va_facility_data_2025-02-20/New Orleans VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''New%20Orleans%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/New Orleans VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''New%20Orleans%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R9ba981b6aee94829b6e82942bc78e979"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="Rb3af8a7365a1469597ffd92de2cea4fb"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Rb5a4f4e2ff87474b8cdc1a18432f2bcc"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="Rc52aa198e04a4207ab967a8540816788"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Reb972b9baa584992b085e53028a47a6a"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R96e9cfe13914431a9c6c83016ab43c9c"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R15880d2c0ea448268f1620ba9a33f879"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R5f04afe5c7e14e7faaaf2a4410bb16f2"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R192f12fd9c434081bfd4d809a199e5ce"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="R9f94ebc0024841b591525ced286c6c7d"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R0557034a4e4d49f799bcb694c723cc6c"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="Rbf6a26ea00204dc997fa11405c96c78a"/>
   </x:sheets>
 </x:workbook>
 </file>
